--- a/RegionenMapping.xlsx
+++ b/RegionenMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Desktop\Power BI in Microsoft Fabric\Unterlagen\Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F002FF6-BAB6-4C80-8CC4-29418992FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FBCA6-B42C-4902-A578-DF1738C65E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3615" windowWidth="29145" windowHeight="16440" xr2:uid="{07B76BF8-6BBF-49DF-ABC9-D3590E46DB61}"/>
+    <workbookView xWindow="3405" yWindow="3960" windowWidth="29145" windowHeight="16440" xr2:uid="{07B76BF8-6BBF-49DF-ABC9-D3590E46DB61}"/>
   </bookViews>
   <sheets>
     <sheet name="Region Dict" sheetId="1" r:id="rId1"/>
@@ -63,16 +63,16 @@
     <t>Region Zentral</t>
   </si>
   <si>
-    <t>Region Norden 1</t>
-  </si>
-  <si>
-    <t>Region Norden 2</t>
-  </si>
-  <si>
     <t>Region Süd</t>
   </si>
   <si>
     <t>Region Süd-West</t>
+  </si>
+  <si>
+    <t>Region Nord 1</t>
+  </si>
+  <si>
+    <t>Region Nord 2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
